--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-medicationdispense-injection.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-medicationdispense-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2476" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2439" uniqueCount="467">
   <si>
     <t>Property</t>
   </si>
@@ -926,7 +926,7 @@
     <t>MedicationDispense.medication[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Medication)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Medication)
 </t>
   </si>
   <si>
@@ -948,13 +948,6 @@
 また、処方を発行した医療機関内でのデータ利用のために、医療機関固有コード体系によるコード（ハウスコード、ローカルコード）の記述を含めてもよいが、その場合でも上述したいずれかの標準コードを同時に記述することが必要である。</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t>Event.code</t>
   </si>
   <si>
@@ -968,16 +961,6 @@
   </si>
   <si>
     <t>RXD-2-Dispense/Give Code</t>
-  </si>
-  <si>
-    <t>MedicationDispense.medication[x]:medicationReference</t>
-  </si>
-  <si>
-    <t>medicationReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Medication)
-</t>
   </si>
   <si>
     <t>MedicationDispense.subject</t>
@@ -1843,7 +1826,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO66"/>
+  <dimension ref="A1:AO65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1854,7 +1837,7 @@
   <cols>
     <col min="1" max="1" width="53.73046875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="48.12109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.62890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="16.3125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -5951,14 +5934,16 @@
         <v>79</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="AC35" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>298</v>
+        <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>292</v>
@@ -5976,31 +5961,29 @@
         <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AN35" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="AM35" t="s" s="2">
+      <c r="AO35" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>303</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="C36" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
         <v>79</v>
       </c>
@@ -6021,16 +6004,16 @@
         <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="N36" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6080,10 +6063,10 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>88</v>
@@ -6095,27 +6078,27 @@
         <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>302</v>
+        <v>79</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6123,7 +6106,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>88</v>
@@ -6135,19 +6118,19 @@
         <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6197,7 +6180,7 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6212,27 +6195,27 @@
         <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>314</v>
+        <v>79</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>315</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6243,7 +6226,7 @@
         <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6255,16 +6238,16 @@
         <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6314,13 +6297,13 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>79</v>
@@ -6329,13 +6312,13 @@
         <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>320</v>
+        <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>321</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>79</v>
+        <v>322</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
@@ -6346,10 +6329,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6372,17 +6355,15 @@
         <v>79</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>79</v>
@@ -6431,7 +6412,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6446,13 +6427,13 @@
         <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>79</v>
+        <v>327</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>327</v>
+        <v>79</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>79</v>
@@ -6463,10 +6444,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6477,7 +6458,7 @@
         <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
@@ -6489,13 +6470,13 @@
         <v>79</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>329</v>
+        <v>170</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>330</v>
+        <v>171</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>331</v>
+        <v>172</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6546,25 +6527,25 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>328</v>
+        <v>173</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>332</v>
+        <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>333</v>
+        <v>174</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
@@ -6578,21 +6559,21 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>79</v>
@@ -6604,15 +6585,17 @@
         <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>79</v>
@@ -6661,19 +6644,19 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>79</v>
@@ -6693,14 +6676,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>147</v>
+        <v>332</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6713,24 +6696,26 @@
         <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>177</v>
+        <v>333</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>178</v>
+        <v>334</v>
       </c>
       <c r="N42" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="O42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>79</v>
       </c>
@@ -6778,7 +6763,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>180</v>
+        <v>335</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6796,7 +6781,7 @@
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>79</v>
@@ -6817,38 +6802,36 @@
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>337</v>
+        <v>79</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>133</v>
+        <v>194</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>79</v>
@@ -6873,13 +6856,13 @@
         <v>79</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>79</v>
+        <v>280</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>79</v>
+        <v>341</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>79</v>
@@ -6897,25 +6880,25 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>131</v>
+        <v>342</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>79</v>
@@ -6929,10 +6912,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6940,7 +6923,7 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>88</v>
@@ -6955,18 +6938,16 @@
         <v>79</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>194</v>
+        <v>344</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>344</v>
-      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>79</v>
       </c>
@@ -6990,13 +6971,13 @@
         <v>79</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>280</v>
+        <v>79</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>345</v>
+        <v>79</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>346</v>
+        <v>79</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>79</v>
@@ -7014,10 +6995,10 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>88</v>
@@ -7029,10 +7010,10 @@
         <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>79</v>
+        <v>347</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>79</v>
@@ -7046,10 +7027,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7057,7 +7038,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>88</v>
@@ -7072,15 +7053,17 @@
         <v>79</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>79</v>
@@ -7129,10 +7112,10 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>88</v>
@@ -7144,7 +7127,7 @@
         <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>352</v>
+        <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>353</v>
@@ -7175,7 +7158,7 @@
         <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>79</v>
@@ -7196,7 +7179,7 @@
         <v>357</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>311</v>
+        <v>358</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7252,7 +7235,7 @@
         <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>79</v>
@@ -7261,27 +7244,27 @@
         <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>79</v>
+        <v>359</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>79</v>
+        <v>361</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>79</v>
+        <v>362</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7292,7 +7275,7 @@
         <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>79</v>
@@ -7304,16 +7287,16 @@
         <v>79</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>360</v>
+        <v>194</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7339,13 +7322,13 @@
         <v>79</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>79</v>
+        <v>280</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>79</v>
+        <v>367</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>79</v>
+        <v>368</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>79</v>
@@ -7363,13 +7346,13 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>79</v>
@@ -7378,27 +7361,27 @@
         <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>364</v>
+        <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7406,7 +7389,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>88</v>
@@ -7421,16 +7404,16 @@
         <v>79</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>194</v>
+        <v>373</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7456,32 +7439,32 @@
         <v>79</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>280</v>
+        <v>79</v>
       </c>
       <c r="Y48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF48" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="Z48" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>368</v>
-      </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
       </c>
@@ -7489,33 +7472,33 @@
         <v>88</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>100</v>
+        <v>377</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>375</v>
+        <v>79</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7523,7 +7506,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>88</v>
@@ -7538,16 +7521,16 @@
         <v>79</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7597,7 +7580,7 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7609,13 +7592,13 @@
         <v>145</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -7624,15 +7607,15 @@
         <v>79</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7652,20 +7635,18 @@
         <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="M50" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>381</v>
-      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>79</v>
@@ -7714,7 +7695,7 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7723,33 +7704,33 @@
         <v>88</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>382</v>
+        <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>79</v>
+        <v>388</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>384</v>
+        <v>389</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7757,7 +7738,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>88</v>
@@ -7769,16 +7750,16 @@
         <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7829,7 +7810,7 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -7844,19 +7825,19 @@
         <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>79</v>
+        <v>393</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="52">
@@ -7872,7 +7853,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>88</v>
@@ -7887,7 +7868,7 @@
         <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>389</v>
+        <v>350</v>
       </c>
       <c r="L52" t="s" s="2">
         <v>396</v>
@@ -7895,7 +7876,9 @@
       <c r="M52" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="N52" s="2"/>
+      <c r="N52" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>79</v>
@@ -7959,27 +7942,27 @@
         <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AM52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN52" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="AM52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>393</v>
-      </c>
       <c r="AO52" t="s" s="2">
-        <v>394</v>
+        <v>400</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7990,7 +7973,7 @@
         <v>80</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>79</v>
@@ -8002,16 +7985,16 @@
         <v>79</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>355</v>
+        <v>402</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8061,13 +8044,13 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>79</v>
@@ -8079,24 +8062,24 @@
         <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>405</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8119,16 +8102,16 @@
         <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>311</v>
+        <v>411</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8178,7 +8161,7 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8193,27 +8176,27 @@
         <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>79</v>
+        <v>412</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>411</v>
+        <v>79</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>79</v>
+        <v>414</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8236,16 +8219,16 @@
         <v>79</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8295,7 +8278,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8310,10 +8293,10 @@
         <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>417</v>
+        <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
@@ -8322,7 +8305,7 @@
         <v>79</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>419</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56">
@@ -8341,7 +8324,7 @@
         <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
@@ -8353,17 +8336,15 @@
         <v>79</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="N56" t="s" s="2">
-        <v>423</v>
-      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>79</v>
@@ -8418,7 +8399,7 @@
         <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>79</v>
@@ -8430,13 +8411,13 @@
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN56" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>79</v>
@@ -8470,13 +8451,13 @@
         <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>329</v>
+        <v>170</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>426</v>
+        <v>171</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>427</v>
+        <v>172</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8527,7 +8508,7 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>425</v>
+        <v>173</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8539,19 +8520,19 @@
         <v>79</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>428</v>
+        <v>174</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>429</v>
+        <v>79</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>79</v>
@@ -8559,21 +8540,21 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
@@ -8585,15 +8566,17 @@
         <v>79</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>79</v>
@@ -8642,19 +8625,19 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>79</v>
@@ -8674,14 +8657,14 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>147</v>
+        <v>332</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8694,24 +8677,26 @@
         <v>79</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>177</v>
+        <v>333</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>178</v>
+        <v>334</v>
       </c>
       <c r="N59" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="O59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>79</v>
       </c>
@@ -8759,7 +8744,7 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>180</v>
+        <v>335</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -8777,7 +8762,7 @@
         <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
@@ -8791,46 +8776,42 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>337</v>
+        <v>79</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>133</v>
+        <v>429</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>338</v>
+        <v>430</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>79</v>
       </c>
@@ -8878,25 +8859,25 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>340</v>
+        <v>428</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>131</v>
+        <v>432</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
@@ -8921,7 +8902,7 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>88</v>
@@ -8936,15 +8917,17 @@
         <v>79</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>79</v>
@@ -8969,13 +8952,13 @@
         <v>79</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>79</v>
+        <v>280</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>79</v>
+        <v>437</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>79</v>
+        <v>438</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>79</v>
@@ -8996,7 +8979,7 @@
         <v>433</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>88</v>
@@ -9011,24 +8994,24 @@
         <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>437</v>
+        <v>369</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>79</v>
+        <v>439</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>79</v>
+        <v>440</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9039,7 +9022,7 @@
         <v>80</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>79</v>
@@ -9054,13 +9037,13 @@
         <v>194</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>441</v>
+        <v>366</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9089,10 +9072,10 @@
         <v>280</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>79</v>
@@ -9110,13 +9093,13 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>79</v>
@@ -9128,24 +9111,24 @@
         <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>374</v>
+        <v>446</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>445</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9168,16 +9151,16 @@
         <v>79</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>194</v>
+        <v>449</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>371</v>
+        <v>306</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9203,13 +9186,13 @@
         <v>79</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>280</v>
+        <v>79</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>449</v>
+        <v>79</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>450</v>
+        <v>79</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>79</v>
@@ -9227,7 +9210,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9245,13 +9228,13 @@
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>79</v>
@@ -9259,14 +9242,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>79</v>
+        <v>455</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9285,16 +9268,16 @@
         <v>79</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>311</v>
+        <v>459</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9344,7 +9327,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9362,13 +9345,13 @@
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>458</v>
+        <v>79</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>79</v>
@@ -9376,14 +9359,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>460</v>
+        <v>79</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9402,16 +9385,16 @@
         <v>79</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9461,7 +9444,7 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9479,7 +9462,7 @@
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9488,123 +9471,6 @@
         <v>79</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E66" s="2"/>
-      <c r="F66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="O66" s="2"/>
-      <c r="P66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q66" s="2"/>
-      <c r="R66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO66" t="s" s="2">
         <v>79</v>
       </c>
     </row>
